--- a/database/industries/palayesh/shavan/product/yearly.xlsx
+++ b/database/industries/palayesh/shavan/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF366CC1-FBA1-4F08-8A4E-C194740A00EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +330,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -341,7 +342,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -388,6 +389,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,6 +441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/palayesh/shavan/product/yearly.xlsx
+++ b/database/industries/palayesh/shavan/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF366CC1-FBA1-4F08-8A4E-C194740A00EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -76,12 +75,6 @@
     <t>گاز مایع</t>
   </si>
   <si>
-    <t>بنزین معمولی</t>
-  </si>
-  <si>
-    <t>بنزین ایزومریت</t>
-  </si>
-  <si>
     <t>نفتای سنگین</t>
   </si>
   <si>
@@ -103,9 +96,6 @@
     <t>نفتای شیرین</t>
   </si>
   <si>
-    <t>بنزین یورو 5</t>
-  </si>
-  <si>
     <t>گوگرد .</t>
   </si>
   <si>
@@ -115,9 +105,6 @@
     <t>نفتای سنگین ترش</t>
   </si>
   <si>
-    <t>بنزین معمولی و یورو 5</t>
-  </si>
-  <si>
     <t>نفتای کامل</t>
   </si>
   <si>
@@ -155,12 +142,15 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>بنزین</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,10 +599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -851,7 +843,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -875,7 +867,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -899,7 +891,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
@@ -923,7 +915,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -947,7 +939,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>11</v>
@@ -971,7 +963,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -993,7 +985,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>11</v>
@@ -1017,7 +1009,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1041,7 +1033,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>11</v>
@@ -1065,7 +1057,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -1089,7 +1081,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>11</v>
@@ -1113,7 +1105,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>11</v>
@@ -1137,7 +1129,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>11</v>
@@ -1161,7 +1153,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
@@ -1185,7 +1177,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>11</v>
@@ -1209,7 +1201,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1261,7 +1253,7 @@
     </row>
     <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1389,10 +1381,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
@@ -1437,7 +1429,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
@@ -1461,7 +1453,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>11</v>
@@ -1485,7 +1477,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
@@ -1509,7 +1501,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>11</v>
@@ -1533,7 +1525,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>11</v>
@@ -1557,7 +1549,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1579,7 +1571,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>11</v>
@@ -1603,7 +1595,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>11</v>
@@ -1627,7 +1619,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
@@ -1651,7 +1643,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>11</v>
@@ -1675,7 +1667,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>11</v>
@@ -1699,7 +1691,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>11</v>
@@ -1723,7 +1715,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>11</v>
@@ -1747,7 +1739,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>11</v>
@@ -1771,7 +1763,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>11</v>
@@ -1795,7 +1787,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1847,7 +1839,7 @@
     </row>
     <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1882,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
@@ -1906,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
@@ -1930,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
@@ -1954,7 +1946,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
@@ -1975,10 +1967,10 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
@@ -2002,7 +1994,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
@@ -2023,10 +2015,10 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
@@ -2047,10 +2039,10 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -2071,10 +2063,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -2095,10 +2087,10 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -2119,10 +2111,10 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
@@ -2143,10 +2135,10 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
@@ -2167,10 +2159,10 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
@@ -2191,10 +2183,10 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -2215,10 +2207,10 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
@@ -2239,10 +2231,10 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
@@ -2263,10 +2255,10 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
@@ -2287,10 +2279,10 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
@@ -2311,10 +2303,10 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -2335,10 +2327,10 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
@@ -2359,10 +2351,10 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -2383,7 +2375,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -2435,7 +2427,7 @@
     </row>
     <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2470,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -2494,7 +2486,7 @@
         <v>13</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -2518,7 +2510,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -2542,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
@@ -2563,10 +2555,10 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
@@ -2590,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
@@ -2611,10 +2603,10 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
@@ -2635,10 +2627,10 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -2659,10 +2651,10 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
@@ -2683,10 +2675,10 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
@@ -2707,10 +2699,10 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
@@ -2731,10 +2723,10 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
@@ -2755,10 +2747,10 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
@@ -2779,10 +2771,10 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
@@ -2803,10 +2795,10 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -2827,10 +2819,10 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -2851,10 +2843,10 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
@@ -2905,7 +2897,7 @@
     </row>
     <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2940,7 +2932,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
@@ -2964,7 +2956,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
@@ -2988,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
@@ -3012,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
@@ -3033,10 +3025,10 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
@@ -3060,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
@@ -3081,10 +3073,10 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
@@ -3105,10 +3097,10 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
@@ -3129,10 +3121,10 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
@@ -3153,10 +3145,10 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
@@ -3177,10 +3169,10 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
@@ -3201,10 +3193,10 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
@@ -3225,10 +3217,10 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
@@ -3249,10 +3241,10 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
@@ -3273,10 +3265,10 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
@@ -3297,10 +3289,10 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
@@ -3321,7 +3313,7 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -3373,7 +3365,7 @@
     </row>
     <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3408,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
@@ -3432,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
@@ -3456,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
@@ -3480,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
@@ -3501,10 +3493,10 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
@@ -3528,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
@@ -3549,10 +3541,10 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
@@ -3573,10 +3565,10 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
@@ -3597,10 +3589,10 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
@@ -3621,10 +3613,10 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
@@ -3645,10 +3637,10 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
@@ -3669,10 +3661,10 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
@@ -3693,10 +3685,10 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
@@ -3717,10 +3709,10 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
@@ -3741,10 +3733,10 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
@@ -3765,10 +3757,10 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
@@ -3789,7 +3781,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>

--- a/database/industries/palayesh/shavan/product/yearly.xlsx
+++ b/database/industries/palayesh/shavan/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF016B5-98CD-477A-971E-B8DC3DCA1744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="45">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -75,6 +76,12 @@
     <t>گاز مایع</t>
   </si>
   <si>
+    <t>بنزین معمولی</t>
+  </si>
+  <si>
+    <t>بنزین ایزومریت</t>
+  </si>
+  <si>
     <t>نفتای سنگین</t>
   </si>
   <si>
@@ -96,6 +103,9 @@
     <t>نفتای شیرین</t>
   </si>
   <si>
+    <t>بنزین یورو 5</t>
+  </si>
+  <si>
     <t>گوگرد .</t>
   </si>
   <si>
@@ -105,6 +115,9 @@
     <t>نفتای سنگین ترش</t>
   </si>
   <si>
+    <t>بنزین معمولی و یورو 5</t>
+  </si>
+  <si>
     <t>نفتای کامل</t>
   </si>
   <si>
@@ -142,15 +155,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>بنزین</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,19 +609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -621,7 +629,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +641,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -645,7 +653,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -655,7 +663,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +675,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -679,7 +687,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -689,7 +697,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -711,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -721,7 +729,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -738,14 +746,14 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -754,22 +762,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>477683</v>
+        <v>535551</v>
       </c>
       <c r="F11" s="11">
-        <v>535551</v>
+        <v>573906</v>
       </c>
       <c r="G11" s="11">
-        <v>573906</v>
+        <v>551171</v>
       </c>
       <c r="H11" s="11">
-        <v>551171</v>
+        <v>635036</v>
       </c>
       <c r="I11" s="11">
-        <v>635036</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>547204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -778,11 +786,11 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1614</v>
-      </c>
-      <c r="F12" s="9">
         <v>3047</v>
       </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
@@ -793,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -801,23 +809,23 @@
         <v>11</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
+      <c r="E13" s="11">
+        <v>892050</v>
       </c>
       <c r="F13" s="11">
-        <v>892050</v>
+        <v>876000</v>
       </c>
       <c r="G13" s="11">
-        <v>876000</v>
+        <v>799293</v>
       </c>
       <c r="H13" s="11">
-        <v>799293</v>
+        <v>887769</v>
       </c>
       <c r="I13" s="11">
-        <v>887769</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>783557</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -826,48 +834,48 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>65821</v>
+        <v>70155</v>
       </c>
       <c r="F14" s="9">
-        <v>70155</v>
+        <v>42032</v>
       </c>
       <c r="G14" s="9">
-        <v>42032</v>
+        <v>39474</v>
       </c>
       <c r="H14" s="9">
-        <v>39474</v>
+        <v>49261</v>
       </c>
       <c r="I14" s="9">
-        <v>49261</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30558</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>633328</v>
-      </c>
-      <c r="F15" s="11">
         <v>945636</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11">
+        <v>660326</v>
       </c>
       <c r="H15" s="11">
-        <v>660326</v>
+        <v>536</v>
       </c>
       <c r="I15" s="11">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>995227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -889,9 +897,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
@@ -913,9 +921,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -937,9 +945,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>11</v>
@@ -948,22 +956,22 @@
       <c r="E19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
+      <c r="F19" s="11">
+        <v>451505</v>
       </c>
       <c r="G19" s="11">
-        <v>451505</v>
+        <v>311632</v>
       </c>
       <c r="H19" s="11">
-        <v>311632</v>
+        <v>557134</v>
       </c>
       <c r="I19" s="11">
-        <v>557134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>305806</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -976,16 +984,16 @@
       <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>12</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>11</v>
@@ -1007,16 +1015,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>890708</v>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>12</v>
@@ -1031,33 +1039,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>773156</v>
-      </c>
-      <c r="F23" s="11">
         <v>435810</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -1072,16 +1080,16 @@
       <c r="G24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>11</v>
@@ -1090,22 +1098,22 @@
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>12</v>
+      <c r="F25" s="11">
+        <v>3262</v>
       </c>
       <c r="G25" s="11">
-        <v>3262</v>
+        <v>1781</v>
       </c>
       <c r="H25" s="11">
-        <v>1781</v>
+        <v>3216</v>
       </c>
       <c r="I25" s="11">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>11</v>
@@ -1120,16 +1128,16 @@
       <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>11</v>
@@ -1144,16 +1152,16 @@
       <c r="G27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
@@ -1162,22 +1170,22 @@
       <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="9">
         <v>740338</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9">
         <v>738425</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>11</v>
@@ -1192,36 +1200,36 @@
       <c r="G29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>2842310</v>
+        <v>2882249</v>
       </c>
       <c r="F30" s="13">
-        <v>2882249</v>
+        <v>2687043</v>
       </c>
       <c r="G30" s="13">
-        <v>2687043</v>
+        <v>2363677</v>
       </c>
       <c r="H30" s="13">
-        <v>2363677</v>
+        <v>2871377</v>
       </c>
       <c r="I30" s="13">
-        <v>2871377</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2665565</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1231,7 +1239,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1241,7 +1249,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1251,9 +1259,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1273,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1283,7 +1291,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -1300,14 +1308,14 @@
       <c r="G36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
@@ -1316,22 +1324,22 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>470687</v>
+        <v>341150</v>
       </c>
       <c r="F37" s="11">
-        <v>341150</v>
+        <v>540816</v>
       </c>
       <c r="G37" s="11">
-        <v>540816</v>
+        <v>552378</v>
       </c>
       <c r="H37" s="11">
-        <v>552378</v>
+        <v>854847</v>
       </c>
       <c r="I37" s="11">
-        <v>854847</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>533589</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1340,11 +1348,11 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>583</v>
-      </c>
-      <c r="F38" s="9">
         <v>2416</v>
       </c>
+      <c r="F38" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1363,32 +1371,32 @@
         <v>11</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>12</v>
+      <c r="E39" s="11">
+        <v>809649</v>
       </c>
       <c r="F39" s="11">
-        <v>809649</v>
+        <v>983020</v>
       </c>
       <c r="G39" s="11">
-        <v>983020</v>
+        <v>761541</v>
       </c>
       <c r="H39" s="11">
-        <v>761541</v>
+        <v>868081</v>
       </c>
       <c r="I39" s="11">
-        <v>868081</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>822329</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
+      <c r="E40" s="9">
+        <v>0</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -1396,14 +1404,14 @@
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
+      <c r="H40" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
@@ -1412,48 +1420,48 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>49574</v>
+        <v>78332</v>
       </c>
       <c r="F41" s="11">
-        <v>78332</v>
+        <v>43022</v>
       </c>
       <c r="G41" s="11">
-        <v>43022</v>
+        <v>38737</v>
       </c>
       <c r="H41" s="11">
-        <v>38737</v>
+        <v>36708</v>
       </c>
       <c r="I41" s="11">
-        <v>36708</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26483</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>701580</v>
-      </c>
-      <c r="F42" s="9">
         <v>932117</v>
       </c>
+      <c r="F42" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>12</v>
+      <c r="H42" s="9">
+        <v>516</v>
       </c>
       <c r="I42" s="9">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1035982</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>11</v>
@@ -1475,9 +1483,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
@@ -1499,9 +1507,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>11</v>
@@ -1523,9 +1531,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>11</v>
@@ -1534,27 +1542,27 @@
       <c r="E46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
+      <c r="F46" s="9">
+        <v>444470</v>
       </c>
       <c r="G46" s="9">
-        <v>444470</v>
+        <v>307556</v>
       </c>
       <c r="H46" s="9">
-        <v>307556</v>
+        <v>607115</v>
       </c>
       <c r="I46" s="9">
-        <v>607115</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>315801</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>12</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
@@ -1569,9 +1577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>11</v>
@@ -1593,16 +1601,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11">
-        <v>897491</v>
+      <c r="E49" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>12</v>
@@ -1617,33 +1625,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>784466</v>
-      </c>
-      <c r="F50" s="9">
         <v>406465</v>
       </c>
+      <c r="F50" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>11</v>
@@ -1652,22 +1660,22 @@
       <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>12</v>
+      <c r="F51" s="11">
+        <v>37408</v>
       </c>
       <c r="G51" s="11">
-        <v>37408</v>
+        <v>1810</v>
       </c>
       <c r="H51" s="11">
-        <v>1810</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>11</v>
@@ -1676,22 +1684,22 @@
       <c r="E52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>12</v>
+      <c r="F52" s="9">
+        <v>3790</v>
       </c>
       <c r="G52" s="9">
-        <v>3790</v>
+        <v>1923</v>
       </c>
       <c r="H52" s="9">
-        <v>1923</v>
+        <v>1814</v>
       </c>
       <c r="I52" s="9">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>11</v>
@@ -1706,16 +1714,16 @@
       <c r="G53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>11</v>
@@ -1730,16 +1738,16 @@
       <c r="G54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>11</v>
@@ -1748,22 +1756,22 @@
       <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
+      <c r="F55" s="11">
+        <v>650520</v>
       </c>
       <c r="G55" s="11">
-        <v>650520</v>
+        <v>696020</v>
       </c>
       <c r="H55" s="11">
-        <v>696020</v>
-      </c>
-      <c r="I55" s="11">
         <v>710220</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>11</v>
@@ -1778,36 +1786,36 @@
       <c r="G56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>2904381</v>
+        <v>2570129</v>
       </c>
       <c r="F57" s="15">
-        <v>2570129</v>
+        <v>2703046</v>
       </c>
       <c r="G57" s="15">
-        <v>2703046</v>
+        <v>2359965</v>
       </c>
       <c r="H57" s="15">
-        <v>2359965</v>
+        <v>3079301</v>
       </c>
       <c r="I57" s="15">
-        <v>3079301</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2737591</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1817,7 +1825,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1827,7 +1835,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1837,9 +1845,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1859,7 +1867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1869,12 +1877,12 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
@@ -1886,51 +1894,51 @@
       <c r="G63" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>4975649</v>
+        <v>6634264</v>
       </c>
       <c r="F64" s="11">
-        <v>6634264</v>
+        <v>17393393</v>
       </c>
       <c r="G64" s="11">
-        <v>17393393</v>
+        <v>26993532</v>
       </c>
       <c r="H64" s="11">
-        <v>26993532</v>
+        <v>66381707</v>
       </c>
       <c r="I64" s="11">
-        <v>66381707</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55217289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>4149</v>
-      </c>
-      <c r="F65" s="9">
         <v>32594</v>
       </c>
+      <c r="F65" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G65" s="9" t="s">
         <v>12</v>
       </c>
@@ -1941,40 +1949,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>12</v>
+      <c r="E66" s="11">
+        <v>25789317</v>
       </c>
       <c r="F66" s="11">
-        <v>25789317</v>
+        <v>49841002</v>
       </c>
       <c r="G66" s="11">
-        <v>49841002</v>
+        <v>50961912</v>
       </c>
       <c r="H66" s="11">
-        <v>50961912</v>
+        <v>107865059</v>
       </c>
       <c r="I66" s="11">
-        <v>107865059</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177197964</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>12</v>
+      <c r="E67" s="9">
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -1982,67 +1990,67 @@
       <c r="G67" s="9">
         <v>0</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="H67" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>488763</v>
+        <v>1059000</v>
       </c>
       <c r="F68" s="11">
-        <v>1059000</v>
+        <v>856097</v>
       </c>
       <c r="G68" s="11">
-        <v>856097</v>
+        <v>1791085</v>
       </c>
       <c r="H68" s="11">
-        <v>1791085</v>
+        <v>2453395</v>
       </c>
       <c r="I68" s="11">
-        <v>2453395</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2231515</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>9580386</v>
-      </c>
-      <c r="F69" s="9">
         <v>25337500</v>
       </c>
+      <c r="F69" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>12</v>
+      <c r="H69" s="9">
+        <v>17911</v>
       </c>
       <c r="I69" s="9">
-        <v>17911</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>183125937</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -2061,12 +2069,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -2085,12 +2093,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -2109,40 +2117,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
+      <c r="F73" s="9">
+        <v>14806427</v>
       </c>
       <c r="G73" s="9">
-        <v>14806427</v>
+        <v>19478072</v>
       </c>
       <c r="H73" s="9">
-        <v>19478072</v>
+        <v>61397813</v>
       </c>
       <c r="I73" s="9">
-        <v>61397813</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36753905</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>12</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
@@ -2157,12 +2165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
@@ -2181,16 +2189,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>13222832</v>
+      <c r="E76" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>12</v>
@@ -2205,84 +2213,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>11113812</v>
-      </c>
-      <c r="F77" s="9">
         <v>9922593</v>
       </c>
+      <c r="F77" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>12</v>
+      <c r="F78" s="11">
+        <v>1829244</v>
       </c>
       <c r="G78" s="11">
-        <v>1829244</v>
+        <v>74020</v>
       </c>
       <c r="H78" s="11">
-        <v>74020</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
+      <c r="F79" s="9">
+        <v>29130</v>
       </c>
       <c r="G79" s="9">
-        <v>29130</v>
+        <v>27525</v>
       </c>
       <c r="H79" s="9">
-        <v>27525</v>
+        <v>120332</v>
       </c>
       <c r="I79" s="9">
-        <v>120332</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>291498</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
@@ -2294,19 +2302,19 @@
       <c r="G80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -2318,43 +2326,43 @@
       <c r="G81" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>12</v>
+      <c r="F82" s="11">
+        <v>28631473</v>
       </c>
       <c r="G82" s="11">
-        <v>28631473</v>
+        <v>39950703</v>
       </c>
       <c r="H82" s="11">
-        <v>39950703</v>
-      </c>
-      <c r="I82" s="11">
         <v>88481097</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -2366,36 +2374,36 @@
       <c r="G83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>39385591</v>
+        <v>68775268</v>
       </c>
       <c r="F84" s="15">
-        <v>68775268</v>
+        <v>113386766</v>
       </c>
       <c r="G84" s="15">
-        <v>113386766</v>
+        <v>139276849</v>
       </c>
       <c r="H84" s="15">
-        <v>139276849</v>
+        <v>326717314</v>
       </c>
       <c r="I84" s="15">
-        <v>326717314</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>454818108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2405,7 +2413,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2415,7 +2423,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2425,9 +2433,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2447,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2457,12 +2465,12 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -2474,51 +2482,51 @@
       <c r="G90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>10571036</v>
+        <v>19446765</v>
       </c>
       <c r="F91" s="11">
-        <v>19446765</v>
+        <v>32161388</v>
       </c>
       <c r="G91" s="11">
-        <v>32161388</v>
+        <v>48867862</v>
       </c>
       <c r="H91" s="11">
-        <v>48867862</v>
+        <v>77653319</v>
       </c>
       <c r="I91" s="11">
-        <v>77653319</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103482810</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>7116638</v>
-      </c>
-      <c r="F92" s="9">
         <v>13490894</v>
       </c>
+      <c r="F92" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G92" s="9" t="s">
         <v>12</v>
       </c>
@@ -2529,40 +2537,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
+      <c r="E93" s="11">
+        <v>31852466</v>
       </c>
       <c r="F93" s="11">
-        <v>31852466</v>
+        <v>50701921</v>
       </c>
       <c r="G93" s="11">
-        <v>50701921</v>
+        <v>66919459</v>
       </c>
       <c r="H93" s="11">
-        <v>66919459</v>
+        <v>124256906</v>
       </c>
       <c r="I93" s="11">
-        <v>124256906</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215483054</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>12</v>
+      <c r="E94" s="9">
+        <v>0</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -2570,95 +2578,95 @@
       <c r="G94" s="9">
         <v>0</v>
       </c>
-      <c r="H94" s="9">
-        <v>0</v>
+      <c r="H94" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>9859261</v>
+        <v>13519379</v>
       </c>
       <c r="F95" s="11">
-        <v>13519379</v>
+        <v>19899052</v>
       </c>
       <c r="G95" s="11">
-        <v>19899052</v>
+        <v>46237060</v>
       </c>
       <c r="H95" s="11">
-        <v>46237060</v>
+        <v>66835431</v>
       </c>
       <c r="I95" s="11">
-        <v>66835431</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84262168</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>13655443</v>
-      </c>
-      <c r="F96" s="9">
         <v>27182746</v>
       </c>
+      <c r="F96" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G96" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>12</v>
+      <c r="H96" s="9">
+        <v>34711240</v>
       </c>
       <c r="I96" s="9">
-        <v>34711240</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176765559</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>12</v>
+      <c r="F97" s="11">
+        <v>33312545</v>
       </c>
       <c r="G97" s="11">
-        <v>33312545</v>
+        <v>63331790</v>
       </c>
       <c r="H97" s="11">
-        <v>63331790</v>
+        <v>101130450</v>
       </c>
       <c r="I97" s="11">
-        <v>101130450</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116383118</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>12</v>
+      <c r="E98" s="9">
+        <v>0</v>
       </c>
       <c r="F98" s="9">
         <v>0</v>
@@ -2666,23 +2674,23 @@
       <c r="G98" s="9">
         <v>0</v>
       </c>
-      <c r="H98" s="9">
-        <v>0</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>14733108</v>
+      <c r="E99" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>12</v>
@@ -2697,84 +2705,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>14167360</v>
-      </c>
-      <c r="F100" s="9">
         <v>24411925</v>
       </c>
+      <c r="F100" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G100" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="9">
+        <v>0</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
+      <c r="F101" s="11">
+        <v>48899808</v>
       </c>
       <c r="G101" s="11">
-        <v>48899808</v>
+        <v>40895028</v>
       </c>
       <c r="H101" s="11">
-        <v>40895028</v>
-      </c>
-      <c r="I101" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>12</v>
+      <c r="F102" s="9">
+        <v>7686016</v>
       </c>
       <c r="G102" s="9">
-        <v>7686016</v>
+        <v>14313573</v>
       </c>
       <c r="H102" s="9">
-        <v>14313573</v>
+        <v>66335171</v>
       </c>
       <c r="I102" s="9">
-        <v>66335171</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85558556</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
@@ -2786,19 +2794,19 @@
       <c r="G103" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -2810,43 +2818,43 @@
       <c r="G104" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>12</v>
+      <c r="F105" s="11">
+        <v>44013209</v>
       </c>
       <c r="G105" s="11">
-        <v>44013209</v>
+        <v>57398786</v>
       </c>
       <c r="H105" s="11">
-        <v>57398786</v>
-      </c>
-      <c r="I105" s="11">
         <v>124582660</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
@@ -2858,14 +2866,14 @@
       <c r="G106" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="9">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2875,7 +2883,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2885,7 +2893,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2895,9 +2903,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2917,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2927,12 +2935,12 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
@@ -2944,51 +2952,51 @@
       <c r="G112" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="9">
+        <v>0</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>12</v>
+      <c r="E113" s="11">
+        <v>-6547455</v>
       </c>
       <c r="F113" s="11">
-        <v>-6547455</v>
+        <v>-15921449</v>
       </c>
       <c r="G113" s="11">
-        <v>-15921449</v>
+        <v>-20992065</v>
       </c>
       <c r="H113" s="11">
-        <v>-20992065</v>
+        <v>-63529865</v>
       </c>
       <c r="I113" s="11">
-        <v>-63529865</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-53148271</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="9">
+      <c r="E114" s="9">
         <v>-31773</v>
       </c>
+      <c r="F114" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G114" s="9" t="s">
         <v>12</v>
       </c>
@@ -2999,40 +3007,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>12</v>
+      <c r="E115" s="11">
+        <v>-23991408</v>
       </c>
       <c r="F115" s="11">
-        <v>-23991408</v>
+        <v>-48943559</v>
       </c>
       <c r="G115" s="11">
-        <v>-48943559</v>
+        <v>-44479329</v>
       </c>
       <c r="H115" s="11">
-        <v>-44479329</v>
+        <v>-94781523</v>
       </c>
       <c r="I115" s="11">
-        <v>-94781523</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-160140062</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>12</v>
+      <c r="E116" s="9">
+        <v>0</v>
       </c>
       <c r="F116" s="9">
         <v>0</v>
@@ -3040,95 +3048,95 @@
       <c r="G116" s="9">
         <v>0</v>
       </c>
-      <c r="H116" s="9">
-        <v>0</v>
+      <c r="H116" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="11" t="s">
-        <v>12</v>
+      <c r="E117" s="11">
+        <v>-1018347</v>
       </c>
       <c r="F117" s="11">
-        <v>-1018347</v>
+        <v>-833364</v>
       </c>
       <c r="G117" s="11">
-        <v>-833364</v>
+        <v>-1472428</v>
       </c>
       <c r="H117" s="11">
-        <v>-1472428</v>
+        <v>-2348419</v>
       </c>
       <c r="I117" s="11">
-        <v>-2348419</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2051800</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="9">
+      <c r="E118" s="9">
         <v>-23190054</v>
       </c>
+      <c r="F118" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G118" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>12</v>
+      <c r="H118" s="9">
+        <v>-16451</v>
       </c>
       <c r="I118" s="9">
-        <v>-16451</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-166869481</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>12</v>
+      <c r="F119" s="11">
+        <v>-14403361</v>
       </c>
       <c r="G119" s="11">
-        <v>-14403361</v>
+        <v>-15166536</v>
       </c>
       <c r="H119" s="11">
-        <v>-15166536</v>
+        <v>-53784362</v>
       </c>
       <c r="I119" s="11">
-        <v>-53784362</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33400364</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>12</v>
+      <c r="E120" s="9">
+        <v>0</v>
       </c>
       <c r="F120" s="9">
         <v>0</v>
@@ -3143,84 +3151,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="11">
+      <c r="E121" s="11">
         <v>-9406134</v>
       </c>
+      <c r="F121" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G121" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>12</v>
+      <c r="F122" s="9">
+        <v>-1619222</v>
       </c>
       <c r="G122" s="9">
-        <v>-1619222</v>
+        <v>-53101</v>
       </c>
       <c r="H122" s="9">
-        <v>-53101</v>
-      </c>
-      <c r="I122" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>12</v>
+      <c r="F123" s="11">
+        <v>-28969</v>
       </c>
       <c r="G123" s="11">
-        <v>-28969</v>
+        <v>-20556</v>
       </c>
       <c r="H123" s="11">
-        <v>-20556</v>
+        <v>-112628</v>
       </c>
       <c r="I123" s="11">
-        <v>-112628</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-268701</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
@@ -3232,19 +3240,19 @@
       <c r="G124" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="9">
+        <v>0</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
@@ -3256,43 +3264,43 @@
       <c r="G125" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>12</v>
+      <c r="F126" s="9">
+        <v>-28158042</v>
       </c>
       <c r="G126" s="9">
-        <v>-28158042</v>
+        <v>-33296697</v>
       </c>
       <c r="H126" s="9">
-        <v>-33296697</v>
-      </c>
-      <c r="I126" s="9">
         <v>-79545304</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I126" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
@@ -3304,36 +3312,36 @@
       <c r="G127" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>0</v>
+        <v>-64185171</v>
       </c>
       <c r="F128" s="13">
-        <v>-64185171</v>
+        <v>-109907966</v>
       </c>
       <c r="G128" s="13">
-        <v>-109907966</v>
+        <v>-115480712</v>
       </c>
       <c r="H128" s="13">
-        <v>-115480712</v>
+        <v>-294118552</v>
       </c>
       <c r="I128" s="13">
-        <v>-294118552</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-415878679</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3343,7 +3351,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3353,7 +3361,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3363,9 +3371,9 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3385,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3395,12 +3403,12 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
@@ -3412,51 +3420,51 @@
       <c r="G134" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D135" s="11"/>
-      <c r="E135" s="11" t="s">
-        <v>12</v>
+      <c r="E135" s="11">
+        <v>86809</v>
       </c>
       <c r="F135" s="11">
-        <v>86809</v>
+        <v>1471944</v>
       </c>
       <c r="G135" s="11">
-        <v>1471944</v>
+        <v>6001467</v>
       </c>
       <c r="H135" s="11">
-        <v>6001467</v>
+        <v>2851842</v>
       </c>
       <c r="I135" s="11">
-        <v>2851842</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2069018</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="9">
+      <c r="E136" s="9">
         <v>821</v>
       </c>
+      <c r="F136" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G136" s="9" t="s">
         <v>12</v>
       </c>
@@ -3467,139 +3475,139 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>12</v>
+      <c r="E137" s="11">
+        <v>1797909</v>
       </c>
       <c r="F137" s="11">
-        <v>1797909</v>
+        <v>897443</v>
       </c>
       <c r="G137" s="11">
-        <v>897443</v>
+        <v>6482583</v>
       </c>
       <c r="H137" s="11">
-        <v>6482583</v>
+        <v>13083536</v>
       </c>
       <c r="I137" s="11">
-        <v>13083536</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17057902</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>12</v>
+      <c r="F138" s="9">
+        <v>0</v>
       </c>
       <c r="G138" s="9">
         <v>0</v>
       </c>
-      <c r="H138" s="9">
-        <v>0</v>
+      <c r="H138" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>12</v>
+      <c r="E139" s="11">
+        <v>40653</v>
       </c>
       <c r="F139" s="11">
-        <v>40653</v>
+        <v>22733</v>
       </c>
       <c r="G139" s="11">
-        <v>22733</v>
+        <v>318657</v>
       </c>
       <c r="H139" s="11">
-        <v>318657</v>
+        <v>104976</v>
       </c>
       <c r="I139" s="11">
-        <v>104976</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179715</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="9">
+      <c r="E140" s="9">
         <v>2147446</v>
       </c>
+      <c r="F140" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G140" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="9" t="s">
-        <v>12</v>
+      <c r="H140" s="9">
+        <v>1460</v>
       </c>
       <c r="I140" s="9">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16256456</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>12</v>
+      <c r="F141" s="11">
+        <v>403066</v>
       </c>
       <c r="G141" s="11">
-        <v>403066</v>
+        <v>4311536</v>
       </c>
       <c r="H141" s="11">
-        <v>4311536</v>
+        <v>7613451</v>
       </c>
       <c r="I141" s="11">
-        <v>7613451</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3353541</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="9" t="s">
-        <v>12</v>
+      <c r="F142" s="9">
+        <v>0</v>
       </c>
       <c r="G142" s="9">
         <v>0</v>
@@ -3611,84 +3619,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D143" s="11"/>
-      <c r="E143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="11">
+      <c r="E143" s="11">
         <v>516459</v>
       </c>
+      <c r="F143" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G143" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="11">
+        <v>0</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>12</v>
+      <c r="F144" s="9">
+        <v>210022</v>
       </c>
       <c r="G144" s="9">
-        <v>210022</v>
+        <v>20919</v>
       </c>
       <c r="H144" s="9">
-        <v>20919</v>
-      </c>
-      <c r="I144" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>12</v>
+      <c r="F145" s="11">
+        <v>161</v>
       </c>
       <c r="G145" s="11">
-        <v>161</v>
+        <v>6969</v>
       </c>
       <c r="H145" s="11">
-        <v>6969</v>
+        <v>7704</v>
       </c>
       <c r="I145" s="11">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22797</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
@@ -3700,19 +3708,19 @@
       <c r="G146" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="9">
+        <v>0</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
@@ -3724,43 +3732,43 @@
       <c r="G147" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="11">
+        <v>0</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>12</v>
+      <c r="F148" s="9">
+        <v>473431</v>
       </c>
       <c r="G148" s="9">
-        <v>473431</v>
+        <v>6654006</v>
       </c>
       <c r="H148" s="9">
-        <v>6654006</v>
-      </c>
-      <c r="I148" s="9">
         <v>8935793</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
@@ -3772,33 +3780,33 @@
       <c r="G149" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="11">
+        <v>0</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13">
-        <v>0</v>
+        <v>4590097</v>
       </c>
       <c r="F150" s="13">
-        <v>4590097</v>
+        <v>3478800</v>
       </c>
       <c r="G150" s="13">
-        <v>3478800</v>
+        <v>23796137</v>
       </c>
       <c r="H150" s="13">
-        <v>23796137</v>
+        <v>32598762</v>
       </c>
       <c r="I150" s="13">
-        <v>32598762</v>
+        <v>38939429</v>
       </c>
     </row>
   </sheetData>
